--- a/results/lp30/Bayesian-ADVI/Symbolic/best_fit.xlsx
+++ b/results/lp30/Bayesian-ADVI/Symbolic/best_fit.xlsx
@@ -1407,7 +1407,7 @@
         <v>0.98</v>
       </c>
       <c r="E2" t="n">
-        <v>0.964</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3">
@@ -1424,7 +1424,7 @@
         <v>0.971</v>
       </c>
       <c r="E3" t="n">
-        <v>0.949</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -1438,10 +1438,10 @@
         <v>0.979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.954</v>
+        <v>0.955</v>
       </c>
       <c r="E4" t="n">
-        <v>0.921</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="5">
@@ -1455,10 +1455,10 @@
         <v>0.972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.896</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="6">
@@ -1469,13 +1469,13 @@
         <v>0.99</v>
       </c>
       <c r="C6" t="n">
-        <v>0.959</v>
+        <v>0.96</v>
       </c>
       <c r="D6" t="n">
-        <v>0.913</v>
+        <v>0.915</v>
       </c>
       <c r="E6" t="n">
-        <v>0.855</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="7">
@@ -1486,13 +1486,13 @@
         <v>0.988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.952</v>
+        <v>0.953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.831</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="8">
@@ -1503,13 +1503,13 @@
         <v>0.985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="D8" t="n">
-        <v>0.877</v>
+        <v>0.881</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="9">
@@ -1517,16 +1517,16 @@
         <v>140</v>
       </c>
       <c r="B9" t="n">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.928</v>
+        <v>0.93</v>
       </c>
       <c r="D9" t="n">
-        <v>0.849</v>
+        <v>0.854</v>
       </c>
       <c r="E9" t="n">
-        <v>0.758</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="10">
@@ -1534,16 +1534,16 @@
         <v>120</v>
       </c>
       <c r="B10" t="n">
-        <v>0.975</v>
+        <v>0.976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.907</v>
+        <v>0.911</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.702</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="11">
@@ -1551,16 +1551,16 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>0.966</v>
+        <v>0.968</v>
       </c>
       <c r="C11" t="n">
-        <v>0.875</v>
+        <v>0.881</v>
       </c>
       <c r="D11" t="n">
-        <v>0.752</v>
+        <v>0.762</v>
       </c>
       <c r="E11" t="n">
-        <v>0.624</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="12">
@@ -1568,16 +1568,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="n">
-        <v>0.95</v>
+        <v>0.953</v>
       </c>
       <c r="C12" t="n">
-        <v>0.822</v>
+        <v>0.831</v>
       </c>
       <c r="D12" t="n">
-        <v>0.663</v>
+        <v>0.678</v>
       </c>
       <c r="E12" t="n">
-        <v>0.516</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="13">
@@ -1585,16 +1585,16 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0.917</v>
+        <v>0.923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.724</v>
+        <v>0.742</v>
       </c>
       <c r="D13" t="n">
-        <v>0.524</v>
+        <v>0.547</v>
       </c>
       <c r="E13" t="n">
-        <v>0.372</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="14">
@@ -1602,16 +1602,16 @@
         <v>50</v>
       </c>
       <c r="B14" t="n">
-        <v>0.886</v>
+        <v>0.896</v>
       </c>
       <c r="C14" t="n">
-        <v>0.644</v>
+        <v>0.669</v>
       </c>
       <c r="D14" t="n">
-        <v>0.43</v>
+        <v>0.458</v>
       </c>
       <c r="E14" t="n">
-        <v>0.29</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="15">
@@ -1619,16 +1619,16 @@
         <v>40</v>
       </c>
       <c r="B15" t="n">
-        <v>0.833</v>
+        <v>0.851</v>
       </c>
       <c r="C15" t="n">
-        <v>0.532</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.322</v>
+        <v>0.353</v>
       </c>
       <c r="E15" t="n">
-        <v>0.208</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="16">
@@ -1636,16 +1636,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>0.735</v>
+        <v>0.769</v>
       </c>
       <c r="C16" t="n">
-        <v>0.382</v>
+        <v>0.427</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209</v>
+        <v>0.24</v>
       </c>
       <c r="E16" t="n">
-        <v>0.129</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
@@ -1653,16 +1653,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>0.54</v>
+        <v>0.608</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211</v>
+        <v>0.259</v>
       </c>
       <c r="D17" t="n">
-        <v>0.106</v>
+        <v>0.133</v>
       </c>
       <c r="E17" t="n">
-        <v>0.062</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="18">
@@ -1670,16 +1670,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>0.213</v>
+        <v>0.31</v>
       </c>
       <c r="C18" t="n">
-        <v>0.063</v>
+        <v>0.099</v>
       </c>
       <c r="D18" t="n">
-        <v>0.029</v>
+        <v>0.046</v>
       </c>
       <c r="E18" t="n">
-        <v>0.016</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="19">
@@ -1687,16 +1687,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="20">
@@ -1704,16 +1704,16 @@
         <v>-10</v>
       </c>
       <c r="B20" t="n">
-        <v>0.212</v>
+        <v>0.122</v>
       </c>
       <c r="C20" t="n">
-        <v>0.063</v>
+        <v>0.034</v>
       </c>
       <c r="D20" t="n">
-        <v>0.029</v>
+        <v>0.015</v>
       </c>
       <c r="E20" t="n">
-        <v>0.016</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1721,16 +1721,16 @@
         <v>-20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.538</v>
+        <v>0.457</v>
       </c>
       <c r="C21" t="n">
-        <v>0.21</v>
+        <v>0.164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.105</v>
+        <v>0.08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.062</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="22">
@@ -1738,16 +1738,16 @@
         <v>-30</v>
       </c>
       <c r="B22" t="n">
-        <v>0.731</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.378</v>
+        <v>0.331</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207</v>
+        <v>0.177</v>
       </c>
       <c r="E22" t="n">
-        <v>0.128</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="23">
@@ -1755,16 +1755,16 @@
         <v>-40</v>
       </c>
       <c r="B23" t="n">
-        <v>0.827</v>
+        <v>0.806</v>
       </c>
       <c r="C23" t="n">
-        <v>0.523</v>
+        <v>0.486</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315</v>
+        <v>0.285</v>
       </c>
       <c r="E23" t="n">
-        <v>0.204</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="24">
@@ -1772,16 +1772,16 @@
         <v>-50</v>
       </c>
       <c r="B24" t="n">
-        <v>0.878</v>
+        <v>0.867</v>
       </c>
       <c r="C24" t="n">
-        <v>0.629</v>
+        <v>0.603</v>
       </c>
       <c r="D24" t="n">
-        <v>0.417</v>
+        <v>0.39</v>
       </c>
       <c r="E24" t="n">
-        <v>0.282</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="25">
@@ -1789,16 +1789,16 @@
         <v>-60</v>
       </c>
       <c r="B25" t="n">
-        <v>0.908</v>
+        <v>0.901</v>
       </c>
       <c r="C25" t="n">
-        <v>0.702</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.502</v>
+        <v>0.48</v>
       </c>
       <c r="E25" t="n">
-        <v>0.357</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="26">
@@ -1806,16 +1806,16 @@
         <v>-80</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.787</v>
+        <v>0.778</v>
       </c>
       <c r="D26" t="n">
-        <v>0.621</v>
+        <v>0.609</v>
       </c>
       <c r="E26" t="n">
-        <v>0.481</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="27">
@@ -1826,13 +1826,13 @@
         <v>0.947</v>
       </c>
       <c r="C27" t="n">
-        <v>0.825</v>
+        <v>0.821</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.681</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="28">
@@ -1843,13 +1843,13 @@
         <v>0.95</v>
       </c>
       <c r="C28" t="n">
-        <v>0.839</v>
+        <v>0.838</v>
       </c>
       <c r="D28" t="n">
-        <v>0.722</v>
+        <v>0.719</v>
       </c>
       <c r="E28" t="n">
-        <v>0.618</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="29">
@@ -1857,16 +1857,16 @@
         <v>-140</v>
       </c>
       <c r="B29" t="n">
-        <v>0.946</v>
+        <v>0.947</v>
       </c>
       <c r="C29" t="n">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
       <c r="D29" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="E29" t="n">
-        <v>0.649</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="30">
@@ -1874,16 +1874,16 @@
         <v>-160</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.829</v>
+        <v>0.831</v>
       </c>
       <c r="D30" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="E30" t="n">
-        <v>0.665</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="31">
@@ -1891,16 +1891,16 @@
         <v>-170</v>
       </c>
       <c r="B31" t="n">
-        <v>0.931</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.821</v>
+        <v>0.823</v>
       </c>
       <c r="D31" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="E31" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="32">
@@ -1908,13 +1908,13 @@
         <v>-180</v>
       </c>
       <c r="B32" t="n">
-        <v>0.922</v>
+        <v>0.925</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="E32" t="n">
         <v>0.673</v>
@@ -1925,13 +1925,13 @@
         <v>-190</v>
       </c>
       <c r="B33" t="n">
-        <v>0.912</v>
+        <v>0.915</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8</v>
+        <v>0.804</v>
       </c>
       <c r="D33" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="E33" t="n">
         <v>0.675</v>
@@ -1942,13 +1942,13 @@
         <v>-200</v>
       </c>
       <c r="B34" t="n">
-        <v>0.899</v>
+        <v>0.903</v>
       </c>
       <c r="C34" t="n">
-        <v>0.789</v>
+        <v>0.793</v>
       </c>
       <c r="D34" t="n">
-        <v>0.724</v>
+        <v>0.726</v>
       </c>
       <c r="E34" t="n">
         <v>0.677</v>
@@ -1959,13 +1959,13 @@
         <v>-210</v>
       </c>
       <c r="B35" t="n">
-        <v>0.886</v>
+        <v>0.89</v>
       </c>
       <c r="C35" t="n">
-        <v>0.778</v>
+        <v>0.782</v>
       </c>
       <c r="D35" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="E35" t="n">
         <v>0.678</v>
@@ -1976,16 +1976,16 @@
         <v>-220</v>
       </c>
       <c r="B36" t="n">
-        <v>0.871</v>
+        <v>0.876</v>
       </c>
       <c r="C36" t="n">
-        <v>0.768</v>
+        <v>0.772</v>
       </c>
       <c r="D36" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="E36" t="n">
-        <v>0.679</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="37">
@@ -1993,16 +1993,16 @@
         <v>-230</v>
       </c>
       <c r="B37" t="n">
-        <v>0.858</v>
+        <v>0.863</v>
       </c>
       <c r="C37" t="n">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="D37" t="n">
-        <v>0.714</v>
+        <v>0.716</v>
       </c>
       <c r="E37" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="38">
@@ -2010,13 +2010,13 @@
         <v>-240</v>
       </c>
       <c r="B38" t="n">
-        <v>0.848</v>
+        <v>0.852</v>
       </c>
       <c r="C38" t="n">
-        <v>0.755</v>
+        <v>0.758</v>
       </c>
       <c r="D38" t="n">
-        <v>0.713</v>
+        <v>0.715</v>
       </c>
       <c r="E38" t="n">
         <v>0.6830000000000001</v>
@@ -2027,16 +2027,16 @@
         <v>-250</v>
       </c>
       <c r="B39" t="n">
-        <v>0.843</v>
+        <v>0.847</v>
       </c>
       <c r="C39" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="D39" t="n">
-        <v>0.714</v>
+        <v>0.715</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -2044,13 +2044,13 @@
         <v>-260</v>
       </c>
       <c r="B40" t="n">
-        <v>0.845</v>
+        <v>0.848</v>
       </c>
       <c r="C40" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="D40" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="E40" t="n">
         <v>0.6889999999999999</v>
@@ -2061,16 +2061,16 @@
         <v>-266</v>
       </c>
       <c r="B41" t="n">
-        <v>0.85</v>
+        <v>0.852</v>
       </c>
       <c r="C41" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="D41" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -2078,16 +2078,16 @@
         <v>-270</v>
       </c>
       <c r="B42" t="n">
-        <v>0.854</v>
+        <v>0.856</v>
       </c>
       <c r="C42" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="D42" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="43">
@@ -2095,13 +2095,13 @@
         <v>-280</v>
       </c>
       <c r="B43" t="n">
-        <v>0.867</v>
+        <v>0.868</v>
       </c>
       <c r="C43" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="D43" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="E43" t="n">
         <v>0.699</v>
@@ -2118,7 +2118,7 @@
         <v>0.782</v>
       </c>
       <c r="D44" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="E44" t="n">
         <v>0.705</v>
@@ -2132,13 +2132,13 @@
         <v>0.897</v>
       </c>
       <c r="C45" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="D45" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="E45" t="n">
-        <v>0.712</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="46">
@@ -2149,10 +2149,10 @@
         <v>0.911</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="E46" t="n">
         <v>0.72</v>
@@ -2169,7 +2169,7 @@
         <v>0.824</v>
       </c>
       <c r="D47" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="E47" t="n">
         <v>0.729</v>
@@ -2180,16 +2180,16 @@
         <v>-330</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.838</v>
+        <v>0.839</v>
       </c>
       <c r="D48" t="n">
         <v>0.777</v>
       </c>
       <c r="E48" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="49">
@@ -2197,7 +2197,7 @@
         <v>-340</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C49" t="n">
         <v>0.852</v>
@@ -2220,10 +2220,10 @@
         <v>0.865</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="E50" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="51">
@@ -2234,13 +2234,13 @@
         <v>0.973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.913</v>
+        <v>0.914</v>
       </c>
       <c r="D51" t="n">
-        <v>0.853</v>
+        <v>0.854</v>
       </c>
       <c r="E51" t="n">
-        <v>0.804</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="52">
@@ -2254,7 +2254,7 @@
         <v>0.9419999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.892</v>
+        <v>0.893</v>
       </c>
       <c r="E52" t="n">
         <v>0.846</v>
@@ -2354,7 +2354,7 @@
         <v>0.971</v>
       </c>
       <c r="E3" t="n">
-        <v>0.949</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -2368,10 +2368,10 @@
         <v>0.979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.954</v>
+        <v>0.955</v>
       </c>
       <c r="E4" t="n">
-        <v>0.921</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="5">
@@ -2385,10 +2385,10 @@
         <v>0.972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.896</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="6">
@@ -2399,13 +2399,13 @@
         <v>0.99</v>
       </c>
       <c r="C6" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="D6" t="n">
-        <v>0.913</v>
+        <v>0.915</v>
       </c>
       <c r="E6" t="n">
-        <v>0.855</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="7">
@@ -2416,13 +2416,13 @@
         <v>0.988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.952</v>
+        <v>0.953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.831</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="8">
@@ -2433,13 +2433,13 @@
         <v>0.985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="D8" t="n">
-        <v>0.877</v>
+        <v>0.881</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="9">
@@ -2447,16 +2447,16 @@
         <v>140</v>
       </c>
       <c r="B9" t="n">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.928</v>
+        <v>0.93</v>
       </c>
       <c r="D9" t="n">
-        <v>0.85</v>
+        <v>0.854</v>
       </c>
       <c r="E9" t="n">
-        <v>0.758</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="10">
@@ -2464,16 +2464,16 @@
         <v>120</v>
       </c>
       <c r="B10" t="n">
-        <v>0.975</v>
+        <v>0.976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.907</v>
+        <v>0.911</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.702</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="11">
@@ -2481,16 +2481,16 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>0.966</v>
+        <v>0.968</v>
       </c>
       <c r="C11" t="n">
-        <v>0.875</v>
+        <v>0.881</v>
       </c>
       <c r="D11" t="n">
-        <v>0.752</v>
+        <v>0.762</v>
       </c>
       <c r="E11" t="n">
-        <v>0.624</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="12">
@@ -2498,16 +2498,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="n">
-        <v>0.95</v>
+        <v>0.953</v>
       </c>
       <c r="C12" t="n">
-        <v>0.822</v>
+        <v>0.831</v>
       </c>
       <c r="D12" t="n">
-        <v>0.663</v>
+        <v>0.678</v>
       </c>
       <c r="E12" t="n">
-        <v>0.516</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="13">
@@ -2515,16 +2515,16 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0.917</v>
+        <v>0.923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.724</v>
+        <v>0.742</v>
       </c>
       <c r="D13" t="n">
-        <v>0.524</v>
+        <v>0.547</v>
       </c>
       <c r="E13" t="n">
-        <v>0.372</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="14">
@@ -2532,16 +2532,16 @@
         <v>50</v>
       </c>
       <c r="B14" t="n">
-        <v>0.886</v>
+        <v>0.896</v>
       </c>
       <c r="C14" t="n">
-        <v>0.644</v>
+        <v>0.669</v>
       </c>
       <c r="D14" t="n">
-        <v>0.43</v>
+        <v>0.458</v>
       </c>
       <c r="E14" t="n">
-        <v>0.291</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="15">
@@ -2549,16 +2549,16 @@
         <v>40</v>
       </c>
       <c r="B15" t="n">
-        <v>0.833</v>
+        <v>0.851</v>
       </c>
       <c r="C15" t="n">
-        <v>0.532</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.322</v>
+        <v>0.353</v>
       </c>
       <c r="E15" t="n">
-        <v>0.208</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="16">
@@ -2566,16 +2566,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>0.735</v>
+        <v>0.769</v>
       </c>
       <c r="C16" t="n">
-        <v>0.383</v>
+        <v>0.428</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209</v>
+        <v>0.24</v>
       </c>
       <c r="E16" t="n">
-        <v>0.129</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
@@ -2583,16 +2583,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>0.54</v>
+        <v>0.608</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211</v>
+        <v>0.259</v>
       </c>
       <c r="D17" t="n">
-        <v>0.106</v>
+        <v>0.133</v>
       </c>
       <c r="E17" t="n">
-        <v>0.062</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="18">
@@ -2600,16 +2600,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>0.213</v>
+        <v>0.31</v>
       </c>
       <c r="C18" t="n">
-        <v>0.063</v>
+        <v>0.099</v>
       </c>
       <c r="D18" t="n">
-        <v>0.029</v>
+        <v>0.046</v>
       </c>
       <c r="E18" t="n">
-        <v>0.016</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="19">
@@ -2617,16 +2617,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="20">
@@ -2634,16 +2634,16 @@
         <v>-10</v>
       </c>
       <c r="B20" t="n">
-        <v>0.212</v>
+        <v>0.122</v>
       </c>
       <c r="C20" t="n">
-        <v>0.063</v>
+        <v>0.034</v>
       </c>
       <c r="D20" t="n">
-        <v>0.029</v>
+        <v>0.015</v>
       </c>
       <c r="E20" t="n">
-        <v>0.016</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -2651,16 +2651,16 @@
         <v>-20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.538</v>
+        <v>0.457</v>
       </c>
       <c r="C21" t="n">
-        <v>0.21</v>
+        <v>0.164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.105</v>
+        <v>0.08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.062</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="22">
@@ -2668,16 +2668,16 @@
         <v>-30</v>
       </c>
       <c r="B22" t="n">
-        <v>0.731</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.378</v>
+        <v>0.331</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207</v>
+        <v>0.177</v>
       </c>
       <c r="E22" t="n">
-        <v>0.128</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="23">
@@ -2685,16 +2685,16 @@
         <v>-40</v>
       </c>
       <c r="B23" t="n">
-        <v>0.827</v>
+        <v>0.806</v>
       </c>
       <c r="C23" t="n">
-        <v>0.523</v>
+        <v>0.486</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315</v>
+        <v>0.285</v>
       </c>
       <c r="E23" t="n">
-        <v>0.204</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="24">
@@ -2702,16 +2702,16 @@
         <v>-50</v>
       </c>
       <c r="B24" t="n">
-        <v>0.878</v>
+        <v>0.867</v>
       </c>
       <c r="C24" t="n">
-        <v>0.629</v>
+        <v>0.603</v>
       </c>
       <c r="D24" t="n">
-        <v>0.417</v>
+        <v>0.39</v>
       </c>
       <c r="E24" t="n">
-        <v>0.283</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="25">
@@ -2719,16 +2719,16 @@
         <v>-60</v>
       </c>
       <c r="B25" t="n">
-        <v>0.908</v>
+        <v>0.901</v>
       </c>
       <c r="C25" t="n">
-        <v>0.703</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.502</v>
+        <v>0.48</v>
       </c>
       <c r="E25" t="n">
-        <v>0.357</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="26">
@@ -2736,16 +2736,16 @@
         <v>-80</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.787</v>
+        <v>0.779</v>
       </c>
       <c r="D26" t="n">
-        <v>0.622</v>
+        <v>0.609</v>
       </c>
       <c r="E26" t="n">
-        <v>0.482</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="27">
@@ -2753,16 +2753,16 @@
         <v>-100</v>
       </c>
       <c r="B27" t="n">
-        <v>0.948</v>
+        <v>0.947</v>
       </c>
       <c r="C27" t="n">
-        <v>0.825</v>
+        <v>0.822</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="28">
@@ -2773,13 +2773,13 @@
         <v>0.95</v>
       </c>
       <c r="C28" t="n">
-        <v>0.84</v>
+        <v>0.839</v>
       </c>
       <c r="D28" t="n">
-        <v>0.723</v>
+        <v>0.719</v>
       </c>
       <c r="E28" t="n">
-        <v>0.618</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="29">
@@ -2787,16 +2787,16 @@
         <v>-140</v>
       </c>
       <c r="B29" t="n">
-        <v>0.946</v>
+        <v>0.947</v>
       </c>
       <c r="C29" t="n">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
       <c r="D29" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="E29" t="n">
-        <v>0.649</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="30">
@@ -2804,16 +2804,16 @@
         <v>-160</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.829</v>
+        <v>0.831</v>
       </c>
       <c r="D30" t="n">
         <v>0.739</v>
       </c>
       <c r="E30" t="n">
-        <v>0.666</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="31">
@@ -2821,16 +2821,16 @@
         <v>-170</v>
       </c>
       <c r="B31" t="n">
-        <v>0.931</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.821</v>
+        <v>0.823</v>
       </c>
       <c r="D31" t="n">
         <v>0.737</v>
       </c>
       <c r="E31" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="32">
@@ -2838,16 +2838,16 @@
         <v>-180</v>
       </c>
       <c r="B32" t="n">
-        <v>0.922</v>
+        <v>0.925</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="E32" t="n">
-        <v>0.674</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="33">
@@ -2855,16 +2855,16 @@
         <v>-190</v>
       </c>
       <c r="B33" t="n">
-        <v>0.912</v>
+        <v>0.915</v>
       </c>
       <c r="C33" t="n">
-        <v>0.801</v>
+        <v>0.804</v>
       </c>
       <c r="D33" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="E33" t="n">
-        <v>0.676</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="34">
@@ -2872,13 +2872,13 @@
         <v>-200</v>
       </c>
       <c r="B34" t="n">
-        <v>0.899</v>
+        <v>0.903</v>
       </c>
       <c r="C34" t="n">
-        <v>0.789</v>
+        <v>0.793</v>
       </c>
       <c r="D34" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="E34" t="n">
         <v>0.677</v>
@@ -2889,13 +2889,13 @@
         <v>-210</v>
       </c>
       <c r="B35" t="n">
-        <v>0.886</v>
+        <v>0.89</v>
       </c>
       <c r="C35" t="n">
-        <v>0.778</v>
+        <v>0.782</v>
       </c>
       <c r="D35" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="E35" t="n">
         <v>0.678</v>
@@ -2906,13 +2906,13 @@
         <v>-220</v>
       </c>
       <c r="B36" t="n">
-        <v>0.871</v>
+        <v>0.876</v>
       </c>
       <c r="C36" t="n">
-        <v>0.768</v>
+        <v>0.772</v>
       </c>
       <c r="D36" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="E36" t="n">
         <v>0.68</v>
@@ -2923,13 +2923,13 @@
         <v>-230</v>
       </c>
       <c r="B37" t="n">
-        <v>0.858</v>
+        <v>0.863</v>
       </c>
       <c r="C37" t="n">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="D37" t="n">
-        <v>0.715</v>
+        <v>0.716</v>
       </c>
       <c r="E37" t="n">
         <v>0.681</v>
@@ -2940,13 +2940,13 @@
         <v>-240</v>
       </c>
       <c r="B38" t="n">
-        <v>0.848</v>
+        <v>0.852</v>
       </c>
       <c r="C38" t="n">
-        <v>0.755</v>
+        <v>0.758</v>
       </c>
       <c r="D38" t="n">
-        <v>0.714</v>
+        <v>0.715</v>
       </c>
       <c r="E38" t="n">
         <v>0.6830000000000001</v>
@@ -2957,10 +2957,10 @@
         <v>-250</v>
       </c>
       <c r="B39" t="n">
-        <v>0.843</v>
+        <v>0.847</v>
       </c>
       <c r="C39" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="D39" t="n">
         <v>0.715</v>
@@ -2974,13 +2974,13 @@
         <v>-260</v>
       </c>
       <c r="B40" t="n">
-        <v>0.846</v>
+        <v>0.848</v>
       </c>
       <c r="C40" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="D40" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="E40" t="n">
         <v>0.6899999999999999</v>
@@ -2991,10 +2991,10 @@
         <v>-266</v>
       </c>
       <c r="B41" t="n">
-        <v>0.85</v>
+        <v>0.852</v>
       </c>
       <c r="C41" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="D41" t="n">
         <v>0.72</v>
@@ -3008,10 +3008,10 @@
         <v>-270</v>
       </c>
       <c r="B42" t="n">
-        <v>0.854</v>
+        <v>0.856</v>
       </c>
       <c r="C42" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="D42" t="n">
         <v>0.722</v>
@@ -3025,7 +3025,7 @@
         <v>-280</v>
       </c>
       <c r="B43" t="n">
-        <v>0.867</v>
+        <v>0.868</v>
       </c>
       <c r="C43" t="n">
         <v>0.771</v>
@@ -3034,7 +3034,7 @@
         <v>0.728</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="44">
@@ -3045,7 +3045,7 @@
         <v>0.882</v>
       </c>
       <c r="C44" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="D44" t="n">
         <v>0.736</v>
@@ -3085,7 +3085,7 @@
         <v>0.755</v>
       </c>
       <c r="E46" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="47">
@@ -3096,7 +3096,7 @@
         <v>0.923</v>
       </c>
       <c r="C47" t="n">
-        <v>0.825</v>
+        <v>0.824</v>
       </c>
       <c r="D47" t="n">
         <v>0.766</v>
@@ -3116,7 +3116,7 @@
         <v>0.839</v>
       </c>
       <c r="D48" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="E48" t="n">
         <v>0.738</v>
@@ -3136,7 +3136,7 @@
         <v>0.789</v>
       </c>
       <c r="E49" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="50">
@@ -3187,7 +3187,7 @@
         <v>0.893</v>
       </c>
       <c r="E52" t="n">
-        <v>0.846</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="53">
@@ -3298,10 +3298,10 @@
         <v>0.979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.954</v>
+        <v>0.955</v>
       </c>
       <c r="E4" t="n">
-        <v>0.922</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="5">
@@ -3315,10 +3315,10 @@
         <v>0.972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.897</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="6">
@@ -3332,10 +3332,10 @@
         <v>0.96</v>
       </c>
       <c r="D6" t="n">
-        <v>0.914</v>
+        <v>0.915</v>
       </c>
       <c r="E6" t="n">
-        <v>0.856</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="7">
@@ -3346,13 +3346,13 @@
         <v>0.988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.952</v>
+        <v>0.953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.832</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="8">
@@ -3363,13 +3363,13 @@
         <v>0.985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="D8" t="n">
-        <v>0.878</v>
+        <v>0.881</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="9">
@@ -3377,16 +3377,16 @@
         <v>140</v>
       </c>
       <c r="B9" t="n">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.928</v>
+        <v>0.93</v>
       </c>
       <c r="D9" t="n">
-        <v>0.85</v>
+        <v>0.854</v>
       </c>
       <c r="E9" t="n">
-        <v>0.759</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="10">
@@ -3397,13 +3397,13 @@
         <v>0.976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.908</v>
+        <v>0.911</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.703</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="11">
@@ -3411,16 +3411,16 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>0.966</v>
+        <v>0.968</v>
       </c>
       <c r="C11" t="n">
-        <v>0.876</v>
+        <v>0.881</v>
       </c>
       <c r="D11" t="n">
-        <v>0.753</v>
+        <v>0.762</v>
       </c>
       <c r="E11" t="n">
-        <v>0.625</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="12">
@@ -3428,16 +3428,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="n">
-        <v>0.95</v>
+        <v>0.953</v>
       </c>
       <c r="C12" t="n">
-        <v>0.822</v>
+        <v>0.831</v>
       </c>
       <c r="D12" t="n">
-        <v>0.664</v>
+        <v>0.678</v>
       </c>
       <c r="E12" t="n">
-        <v>0.516</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="13">
@@ -3445,16 +3445,16 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0.917</v>
+        <v>0.924</v>
       </c>
       <c r="C13" t="n">
-        <v>0.725</v>
+        <v>0.742</v>
       </c>
       <c r="D13" t="n">
-        <v>0.524</v>
+        <v>0.547</v>
       </c>
       <c r="E13" t="n">
-        <v>0.373</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="14">
@@ -3462,16 +3462,16 @@
         <v>50</v>
       </c>
       <c r="B14" t="n">
-        <v>0.886</v>
+        <v>0.896</v>
       </c>
       <c r="C14" t="n">
-        <v>0.645</v>
+        <v>0.67</v>
       </c>
       <c r="D14" t="n">
-        <v>0.43</v>
+        <v>0.458</v>
       </c>
       <c r="E14" t="n">
-        <v>0.291</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="15">
@@ -3479,16 +3479,16 @@
         <v>40</v>
       </c>
       <c r="B15" t="n">
-        <v>0.833</v>
+        <v>0.851</v>
       </c>
       <c r="C15" t="n">
-        <v>0.533</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.322</v>
+        <v>0.353</v>
       </c>
       <c r="E15" t="n">
-        <v>0.208</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="16">
@@ -3496,16 +3496,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>0.735</v>
+        <v>0.769</v>
       </c>
       <c r="C16" t="n">
-        <v>0.383</v>
+        <v>0.428</v>
       </c>
       <c r="D16" t="n">
-        <v>0.21</v>
+        <v>0.241</v>
       </c>
       <c r="E16" t="n">
-        <v>0.129</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="17">
@@ -3513,16 +3513,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>0.541</v>
+        <v>0.609</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211</v>
+        <v>0.259</v>
       </c>
       <c r="D17" t="n">
-        <v>0.106</v>
+        <v>0.133</v>
       </c>
       <c r="E17" t="n">
-        <v>0.063</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
@@ -3530,16 +3530,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>0.213</v>
+        <v>0.312</v>
       </c>
       <c r="C18" t="n">
-        <v>0.063</v>
+        <v>0.099</v>
       </c>
       <c r="D18" t="n">
-        <v>0.029</v>
+        <v>0.047</v>
       </c>
       <c r="E18" t="n">
-        <v>0.016</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="19">
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="20">
@@ -3564,16 +3564,16 @@
         <v>-10</v>
       </c>
       <c r="B20" t="n">
-        <v>0.212</v>
+        <v>0.121</v>
       </c>
       <c r="C20" t="n">
-        <v>0.063</v>
+        <v>0.033</v>
       </c>
       <c r="D20" t="n">
-        <v>0.029</v>
+        <v>0.015</v>
       </c>
       <c r="E20" t="n">
-        <v>0.016</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3581,16 +3581,16 @@
         <v>-20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.538</v>
+        <v>0.456</v>
       </c>
       <c r="C21" t="n">
-        <v>0.21</v>
+        <v>0.164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.105</v>
+        <v>0.08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.062</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="22">
@@ -3598,16 +3598,16 @@
         <v>-30</v>
       </c>
       <c r="B22" t="n">
-        <v>0.731</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.378</v>
+        <v>0.331</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207</v>
+        <v>0.177</v>
       </c>
       <c r="E22" t="n">
-        <v>0.128</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="23">
@@ -3615,16 +3615,16 @@
         <v>-40</v>
       </c>
       <c r="B23" t="n">
-        <v>0.827</v>
+        <v>0.806</v>
       </c>
       <c r="C23" t="n">
-        <v>0.523</v>
+        <v>0.485</v>
       </c>
       <c r="D23" t="n">
-        <v>0.316</v>
+        <v>0.285</v>
       </c>
       <c r="E23" t="n">
-        <v>0.204</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="24">
@@ -3632,16 +3632,16 @@
         <v>-50</v>
       </c>
       <c r="B24" t="n">
-        <v>0.879</v>
+        <v>0.867</v>
       </c>
       <c r="C24" t="n">
-        <v>0.63</v>
+        <v>0.603</v>
       </c>
       <c r="D24" t="n">
-        <v>0.417</v>
+        <v>0.389</v>
       </c>
       <c r="E24" t="n">
-        <v>0.283</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="25">
@@ -3649,16 +3649,16 @@
         <v>-60</v>
       </c>
       <c r="B25" t="n">
-        <v>0.908</v>
+        <v>0.901</v>
       </c>
       <c r="C25" t="n">
-        <v>0.703</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.503</v>
+        <v>0.48</v>
       </c>
       <c r="E25" t="n">
-        <v>0.358</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="26">
@@ -3666,16 +3666,16 @@
         <v>-80</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.787</v>
+        <v>0.778</v>
       </c>
       <c r="D26" t="n">
-        <v>0.622</v>
+        <v>0.608</v>
       </c>
       <c r="E26" t="n">
-        <v>0.482</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="27">
@@ -3683,16 +3683,16 @@
         <v>-100</v>
       </c>
       <c r="B27" t="n">
-        <v>0.948</v>
+        <v>0.947</v>
       </c>
       <c r="C27" t="n">
-        <v>0.826</v>
+        <v>0.821</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.681</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="28">
@@ -3703,13 +3703,13 @@
         <v>0.95</v>
       </c>
       <c r="C28" t="n">
-        <v>0.84</v>
+        <v>0.838</v>
       </c>
       <c r="D28" t="n">
-        <v>0.723</v>
+        <v>0.719</v>
       </c>
       <c r="E28" t="n">
-        <v>0.619</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="29">
@@ -3723,10 +3723,10 @@
         <v>0.84</v>
       </c>
       <c r="D29" t="n">
-        <v>0.737</v>
+        <v>0.735</v>
       </c>
       <c r="E29" t="n">
-        <v>0.649</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="30">
@@ -3734,16 +3734,16 @@
         <v>-160</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.829</v>
+        <v>0.831</v>
       </c>
       <c r="D30" t="n">
-        <v>0.739</v>
+        <v>0.738</v>
       </c>
       <c r="E30" t="n">
-        <v>0.666</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="31">
@@ -3751,16 +3751,16 @@
         <v>-170</v>
       </c>
       <c r="B31" t="n">
-        <v>0.931</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.821</v>
+        <v>0.823</v>
       </c>
       <c r="D31" t="n">
         <v>0.737</v>
       </c>
       <c r="E31" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="32">
@@ -3768,16 +3768,16 @@
         <v>-180</v>
       </c>
       <c r="B32" t="n">
-        <v>0.922</v>
+        <v>0.924</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="E32" t="n">
-        <v>0.673</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="33">
@@ -3785,13 +3785,13 @@
         <v>-190</v>
       </c>
       <c r="B33" t="n">
-        <v>0.912</v>
+        <v>0.915</v>
       </c>
       <c r="C33" t="n">
-        <v>0.801</v>
+        <v>0.803</v>
       </c>
       <c r="D33" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="E33" t="n">
         <v>0.675</v>
@@ -3802,16 +3802,16 @@
         <v>-200</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9</v>
+        <v>0.903</v>
       </c>
       <c r="C34" t="n">
-        <v>0.789</v>
+        <v>0.792</v>
       </c>
       <c r="D34" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="E34" t="n">
-        <v>0.677</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="35">
@@ -3819,13 +3819,13 @@
         <v>-210</v>
       </c>
       <c r="B35" t="n">
-        <v>0.886</v>
+        <v>0.89</v>
       </c>
       <c r="C35" t="n">
-        <v>0.778</v>
+        <v>0.781</v>
       </c>
       <c r="D35" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="E35" t="n">
         <v>0.678</v>
@@ -3836,13 +3836,13 @@
         <v>-220</v>
       </c>
       <c r="B36" t="n">
-        <v>0.871</v>
+        <v>0.876</v>
       </c>
       <c r="C36" t="n">
-        <v>0.768</v>
+        <v>0.771</v>
       </c>
       <c r="D36" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="E36" t="n">
         <v>0.679</v>
@@ -3853,13 +3853,13 @@
         <v>-230</v>
       </c>
       <c r="B37" t="n">
-        <v>0.858</v>
+        <v>0.862</v>
       </c>
       <c r="C37" t="n">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="D37" t="n">
-        <v>0.714</v>
+        <v>0.715</v>
       </c>
       <c r="E37" t="n">
         <v>0.68</v>
@@ -3870,13 +3870,13 @@
         <v>-240</v>
       </c>
       <c r="B38" t="n">
-        <v>0.847</v>
+        <v>0.852</v>
       </c>
       <c r="C38" t="n">
-        <v>0.754</v>
+        <v>0.757</v>
       </c>
       <c r="D38" t="n">
-        <v>0.713</v>
+        <v>0.714</v>
       </c>
       <c r="E38" t="n">
         <v>0.6820000000000001</v>
@@ -3887,10 +3887,10 @@
         <v>-250</v>
       </c>
       <c r="B39" t="n">
-        <v>0.843</v>
+        <v>0.847</v>
       </c>
       <c r="C39" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="D39" t="n">
         <v>0.714</v>
@@ -3904,13 +3904,13 @@
         <v>-260</v>
       </c>
       <c r="B40" t="n">
-        <v>0.845</v>
+        <v>0.848</v>
       </c>
       <c r="C40" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="D40" t="n">
-        <v>0.716</v>
+        <v>0.717</v>
       </c>
       <c r="E40" t="n">
         <v>0.6889999999999999</v>
@@ -3921,16 +3921,16 @@
         <v>-266</v>
       </c>
       <c r="B41" t="n">
-        <v>0.85</v>
+        <v>0.852</v>
       </c>
       <c r="C41" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="D41" t="n">
         <v>0.719</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3938,10 +3938,10 @@
         <v>-270</v>
       </c>
       <c r="B42" t="n">
-        <v>0.854</v>
+        <v>0.855</v>
       </c>
       <c r="C42" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="D42" t="n">
         <v>0.721</v>
@@ -3964,7 +3964,7 @@
         <v>0.727</v>
       </c>
       <c r="E43" t="n">
-        <v>0.699</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="44">
@@ -3972,7 +3972,7 @@
         <v>-290</v>
       </c>
       <c r="B44" t="n">
-        <v>0.883</v>
+        <v>0.882</v>
       </c>
       <c r="C44" t="n">
         <v>0.782</v>
@@ -3989,16 +3989,16 @@
         <v>-300</v>
       </c>
       <c r="B45" t="n">
-        <v>0.898</v>
+        <v>0.897</v>
       </c>
       <c r="C45" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="D45" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="E45" t="n">
-        <v>0.713</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="46">
@@ -4006,16 +4006,16 @@
         <v>-310</v>
       </c>
       <c r="B46" t="n">
-        <v>0.912</v>
+        <v>0.911</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="E46" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="47">
@@ -4023,16 +4023,16 @@
         <v>-320</v>
       </c>
       <c r="B47" t="n">
-        <v>0.924</v>
+        <v>0.923</v>
       </c>
       <c r="C47" t="n">
-        <v>0.825</v>
+        <v>0.824</v>
       </c>
       <c r="D47" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="E47" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="48">
@@ -4040,16 +4040,16 @@
         <v>-330</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.84</v>
+        <v>0.838</v>
       </c>
       <c r="D48" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="E48" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="49">
@@ -4057,16 +4057,16 @@
         <v>-340</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.853</v>
+        <v>0.852</v>
       </c>
       <c r="D49" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="E49" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="50">
@@ -4074,16 +4074,16 @@
         <v>-350</v>
       </c>
       <c r="B50" t="n">
-        <v>0.951</v>
+        <v>0.95</v>
       </c>
       <c r="C50" t="n">
-        <v>0.866</v>
+        <v>0.865</v>
       </c>
       <c r="D50" t="n">
-        <v>0.802</v>
+        <v>0.8</v>
       </c>
       <c r="E50" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="51">
@@ -4094,13 +4094,13 @@
         <v>0.973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.915</v>
+        <v>0.913</v>
       </c>
       <c r="D51" t="n">
-        <v>0.855</v>
+        <v>0.853</v>
       </c>
       <c r="E51" t="n">
-        <v>0.806</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="52">
@@ -4108,16 +4108,16 @@
         <v>-450</v>
       </c>
       <c r="B52" t="n">
-        <v>0.984</v>
+        <v>0.983</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.894</v>
+        <v>0.893</v>
       </c>
       <c r="E52" t="n">
-        <v>0.847</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="53">
@@ -4128,13 +4128,13 @@
         <v>0.989</v>
       </c>
       <c r="C53" t="n">
-        <v>0.96</v>
+        <v>0.959</v>
       </c>
       <c r="D53" t="n">
-        <v>0.921</v>
+        <v>0.92</v>
       </c>
       <c r="E53" t="n">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
     </row>
   </sheetData>
